--- a/src/main/resources/Excel/OrangeHRM.xlsx
+++ b/src/main/resources/Excel/OrangeHRM.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="44">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -132,12 +132,34 @@
   </si>
   <si>
     <t>1985-04-06</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,13 +204,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -198,6 +234,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,50 +554,50 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -569,251 +614,331 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>101</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="L2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>102</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="L3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>103</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="L4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>104</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="L5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>105</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="L6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>106</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="L7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>107</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="L8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <v>108</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -827,90 +952,90 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>101</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>102</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -927,165 +1052,165 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>101</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>102</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>103</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>104</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>34</v>
       </c>
     </row>

--- a/src/main/resources/Excel/OrangeHRM.xlsx
+++ b/src/main/resources/Excel/OrangeHRM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -554,7 +554,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
